--- a/PrecioFrutaHortalizas/Consolidado/referenciaCategoría.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/referenciaCategoría.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\Documents\precios_fruta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\OneDrive\Documentos\GitHub\DATA-AGRO\PrecioFrutaHortalizas\Consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1985A20E-7033-435D-BBBF-1308725056C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C75D1-DDAE-49DC-B432-5CC1470149F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10316" uniqueCount="10038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10323" uniqueCount="10045">
   <si>
     <t>id</t>
   </si>
@@ -30134,6 +30134,27 @@
   </si>
   <si>
     <t>Casas de Acogida-270109010 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>Arándano (blue)</t>
+  </si>
+  <si>
+    <t>Pera asiática</t>
+  </si>
+  <si>
+    <t>Corazón de apio</t>
+  </si>
+  <si>
+    <t>Espárragos</t>
+  </si>
+  <si>
+    <t>Pepino ensalada</t>
+  </si>
+  <si>
+    <t>Rabanito</t>
+  </si>
+  <si>
+    <t>Ramas de apio</t>
   </si>
 </sst>
 </file>
@@ -30535,13 +30556,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3518"/>
+  <dimension ref="A1:E3525"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -89629,6 +89656,83 @@
         <v>270109</v>
       </c>
     </row>
+    <row r="3519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3519">
+        <v>100101001</v>
+      </c>
+      <c r="B3519" t="s">
+        <v>10038</v>
+      </c>
+      <c r="E3519">
+        <v>100101</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3520">
+        <v>100104005</v>
+      </c>
+      <c r="B3520" t="s">
+        <v>10039</v>
+      </c>
+      <c r="E3520">
+        <v>100104</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3521">
+        <v>100112017</v>
+      </c>
+      <c r="B3521" t="s">
+        <v>10040</v>
+      </c>
+      <c r="E3521">
+        <v>100112</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3522">
+        <v>300000000</v>
+      </c>
+      <c r="B3522" t="s">
+        <v>10041</v>
+      </c>
+      <c r="E3522">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3523">
+        <v>100112043</v>
+      </c>
+      <c r="B3523" t="s">
+        <v>10042</v>
+      </c>
+      <c r="E3523">
+        <v>100112</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3524">
+        <v>300000001</v>
+      </c>
+      <c r="B3524" t="s">
+        <v>10043</v>
+      </c>
+      <c r="E3524">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3525">
+        <v>100112017</v>
+      </c>
+      <c r="B3525" t="s">
+        <v>10044</v>
+      </c>
+      <c r="E3525">
+        <v>100112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
